--- a/awx/awqx_app/testData/190213-245_DB.xlsx
+++ b/awx/awqx_app/testData/190213-245_DB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Customer Service Data Sent 2019\CTDEEP\Water Quality\190213-245\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepuser\Documents\Projects\ProgramDev\awx\awqx_app\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A59A4-BD07-46EE-86E3-75A0657D55E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="18975" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8478" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8562" uniqueCount="210">
   <si>
     <t>lab_accession</t>
   </si>
@@ -649,11 +650,14 @@
   <si>
     <t>*</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -957,17 +961,17 @@
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="8"/>
-    <cellStyle name="Normal 3" xfId="9"/>
-    <cellStyle name="Normal 4" xfId="10"/>
-    <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 6" xfId="11"/>
-    <cellStyle name="Normal_DEP_EXPORT4" xfId="5"/>
-    <cellStyle name="Normal_DEP_EXPORT4_1" xfId="6"/>
-    <cellStyle name="Normal_Sheet1" xfId="2"/>
-    <cellStyle name="Normal_Sheet1_1" xfId="3"/>
-    <cellStyle name="Normal_Sheet1_2" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 6" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal_DEP_EXPORT4" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal_DEP_EXPORT4_1" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal_Sheet1_1" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal_Sheet1_2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="32">
     <dxf>
@@ -1235,6 +1239,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1270,6 +1291,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1445,12 +1483,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1783"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1743" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1758" sqref="I1758"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1262" sqref="N1262:N1345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -46067,7 +46105,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1249" spans="1:13">
+    <row r="1249" spans="1:14">
       <c r="A1249" s="14" t="s">
         <v>190</v>
       </c>
@@ -46104,7 +46142,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1250" spans="1:13">
+    <row r="1250" spans="1:14">
       <c r="A1250" s="14" t="s">
         <v>191</v>
       </c>
@@ -46141,7 +46179,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1251" spans="1:13">
+    <row r="1251" spans="1:14">
       <c r="A1251" s="14" t="s">
         <v>193</v>
       </c>
@@ -46178,7 +46216,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1252" spans="1:13">
+    <row r="1252" spans="1:14">
       <c r="A1252" s="14" t="s">
         <v>194</v>
       </c>
@@ -46215,7 +46253,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1253" spans="1:13">
+    <row r="1253" spans="1:14">
       <c r="A1253" s="14" t="s">
         <v>195</v>
       </c>
@@ -46252,7 +46290,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1254" spans="1:13">
+    <row r="1254" spans="1:14">
       <c r="A1254" s="14" t="s">
         <v>196</v>
       </c>
@@ -46289,7 +46327,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1255" spans="1:13">
+    <row r="1255" spans="1:14">
       <c r="A1255" s="14" t="s">
         <v>201</v>
       </c>
@@ -46326,7 +46364,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1256" spans="1:13">
+    <row r="1256" spans="1:14">
       <c r="A1256" s="14" t="s">
         <v>202</v>
       </c>
@@ -46363,7 +46401,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1257" spans="1:13">
+    <row r="1257" spans="1:14">
       <c r="A1257" s="14" t="s">
         <v>203</v>
       </c>
@@ -46400,7 +46438,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1258" spans="1:13">
+    <row r="1258" spans="1:14">
       <c r="A1258" s="14" t="s">
         <v>204</v>
       </c>
@@ -46437,7 +46475,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1259" spans="1:13">
+    <row r="1259" spans="1:14">
       <c r="A1259" s="14" t="s">
         <v>205</v>
       </c>
@@ -46474,7 +46512,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1260" spans="1:13">
+    <row r="1260" spans="1:14">
       <c r="A1260" s="14" t="s">
         <v>206</v>
       </c>
@@ -46511,7 +46549,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1261" spans="1:13">
+    <row r="1261" spans="1:14">
       <c r="A1261" s="14" t="s">
         <v>207</v>
       </c>
@@ -46548,7 +46586,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="1262" spans="1:13">
+    <row r="1262" spans="1:14">
       <c r="A1262" s="14" t="s">
         <v>96</v>
       </c>
@@ -46584,8 +46622,11 @@
       <c r="M1262" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1263" spans="1:13">
+      <c r="N1262" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:14">
       <c r="A1263" s="14" t="s">
         <v>97</v>
       </c>
@@ -46621,8 +46662,11 @@
       <c r="M1263" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1264" spans="1:13">
+      <c r="N1263" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:14">
       <c r="A1264" s="14" t="s">
         <v>100</v>
       </c>
@@ -46658,8 +46702,11 @@
       <c r="M1264" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1265" spans="1:13">
+      <c r="N1264" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:14">
       <c r="A1265" s="14" t="s">
         <v>101</v>
       </c>
@@ -46695,8 +46742,11 @@
       <c r="M1265" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1266" spans="1:13">
+      <c r="N1265" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:14">
       <c r="A1266" s="14" t="s">
         <v>102</v>
       </c>
@@ -46732,8 +46782,11 @@
       <c r="M1266" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1267" spans="1:13">
+      <c r="N1266" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:14">
       <c r="A1267" s="43" t="s">
         <v>103</v>
       </c>
@@ -46769,8 +46822,11 @@
       <c r="M1267" s="58">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1268" spans="1:13">
+      <c r="N1267" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:14">
       <c r="A1268" s="43" t="s">
         <v>104</v>
       </c>
@@ -46806,8 +46862,11 @@
       <c r="M1268" s="58">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1269" spans="1:13">
+      <c r="N1268" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:14">
       <c r="A1269" s="14" t="s">
         <v>105</v>
       </c>
@@ -46843,8 +46902,11 @@
       <c r="M1269" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1270" spans="1:13">
+      <c r="N1269" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:14">
       <c r="A1270" s="14" t="s">
         <v>106</v>
       </c>
@@ -46880,8 +46942,11 @@
       <c r="M1270" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1271" spans="1:13">
+      <c r="N1270" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:14">
       <c r="A1271" s="14" t="s">
         <v>107</v>
       </c>
@@ -46917,8 +46982,11 @@
       <c r="M1271" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1272" spans="1:13">
+      <c r="N1271" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:14">
       <c r="A1272" s="14" t="s">
         <v>108</v>
       </c>
@@ -46954,8 +47022,11 @@
       <c r="M1272" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1273" spans="1:13">
+      <c r="N1272" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:14">
       <c r="A1273" s="43" t="s">
         <v>109</v>
       </c>
@@ -46991,8 +47062,11 @@
       <c r="M1273" s="58">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1274" spans="1:13">
+      <c r="N1273" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:14">
       <c r="A1274" s="43" t="s">
         <v>110</v>
       </c>
@@ -47030,8 +47104,11 @@
       <c r="M1274" s="58">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1275" spans="1:13">
+      <c r="N1274" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:14">
       <c r="A1275" s="43" t="s">
         <v>111</v>
       </c>
@@ -47069,8 +47146,11 @@
       <c r="M1275" s="58">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1276" spans="1:13">
+      <c r="N1275" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:14">
       <c r="A1276" s="43" t="s">
         <v>113</v>
       </c>
@@ -47106,8 +47186,11 @@
       <c r="M1276" s="58">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1277" spans="1:13">
+      <c r="N1276" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:14">
       <c r="A1277" s="14" t="s">
         <v>114</v>
       </c>
@@ -47143,8 +47226,11 @@
       <c r="M1277" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1278" spans="1:13">
+      <c r="N1277" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:14">
       <c r="A1278" s="14" t="s">
         <v>115</v>
       </c>
@@ -47180,8 +47266,11 @@
       <c r="M1278" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1279" spans="1:13">
+      <c r="N1278" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:14">
       <c r="A1279" s="14" t="s">
         <v>116</v>
       </c>
@@ -47217,8 +47306,11 @@
       <c r="M1279" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1280" spans="1:13">
+      <c r="N1279" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:14">
       <c r="A1280" s="14" t="s">
         <v>117</v>
       </c>
@@ -47254,8 +47346,11 @@
       <c r="M1280" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1281" spans="1:13">
+      <c r="N1280" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:14">
       <c r="A1281" s="14" t="s">
         <v>118</v>
       </c>
@@ -47291,8 +47386,11 @@
       <c r="M1281" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1282" spans="1:13">
+      <c r="N1281" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:14">
       <c r="A1282" s="14" t="s">
         <v>119</v>
       </c>
@@ -47328,8 +47426,11 @@
       <c r="M1282" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1283" spans="1:13">
+      <c r="N1282" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:14">
       <c r="A1283" s="14" t="s">
         <v>120</v>
       </c>
@@ -47365,8 +47466,11 @@
       <c r="M1283" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1284" spans="1:13">
+      <c r="N1283" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:14">
       <c r="A1284" s="14" t="s">
         <v>121</v>
       </c>
@@ -47402,8 +47506,11 @@
       <c r="M1284" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1285" spans="1:13">
+      <c r="N1284" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:14">
       <c r="A1285" s="14" t="s">
         <v>122</v>
       </c>
@@ -47439,8 +47546,11 @@
       <c r="M1285" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1286" spans="1:13">
+      <c r="N1285" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:14">
       <c r="A1286" s="14" t="s">
         <v>123</v>
       </c>
@@ -47476,8 +47586,11 @@
       <c r="M1286" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1287" spans="1:13">
+      <c r="N1286" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:14">
       <c r="A1287" s="14" t="s">
         <v>124</v>
       </c>
@@ -47513,8 +47626,11 @@
       <c r="M1287" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1288" spans="1:13">
+      <c r="N1287" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:14">
       <c r="A1288" s="14" t="s">
         <v>125</v>
       </c>
@@ -47550,8 +47666,11 @@
       <c r="M1288" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1289" spans="1:13">
+      <c r="N1288" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:14">
       <c r="A1289" s="14" t="s">
         <v>126</v>
       </c>
@@ -47587,8 +47706,11 @@
       <c r="M1289" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1290" spans="1:13">
+      <c r="N1289" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:14">
       <c r="A1290" s="14" t="s">
         <v>127</v>
       </c>
@@ -47624,8 +47746,11 @@
       <c r="M1290" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1291" spans="1:13">
+      <c r="N1290" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:14">
       <c r="A1291" s="14" t="s">
         <v>128</v>
       </c>
@@ -47661,8 +47786,11 @@
       <c r="M1291" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1292" spans="1:13">
+      <c r="N1291" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:14">
       <c r="A1292" s="14" t="s">
         <v>129</v>
       </c>
@@ -47698,8 +47826,11 @@
       <c r="M1292" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1293" spans="1:13">
+      <c r="N1292" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:14">
       <c r="A1293" s="14" t="s">
         <v>130</v>
       </c>
@@ -47735,8 +47866,11 @@
       <c r="M1293" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1294" spans="1:13">
+      <c r="N1293" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:14">
       <c r="A1294" s="14" t="s">
         <v>131</v>
       </c>
@@ -47772,8 +47906,11 @@
       <c r="M1294" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1295" spans="1:13">
+      <c r="N1294" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:14">
       <c r="A1295" s="14" t="s">
         <v>132</v>
       </c>
@@ -47809,8 +47946,11 @@
       <c r="M1295" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1296" spans="1:13">
+      <c r="N1295" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:14">
       <c r="A1296" s="14" t="s">
         <v>152</v>
       </c>
@@ -47848,8 +47988,11 @@
       <c r="M1296" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1297" spans="1:13">
+      <c r="N1296" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:14">
       <c r="A1297" s="14" t="s">
         <v>153</v>
       </c>
@@ -47887,8 +48030,11 @@
       <c r="M1297" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1298" spans="1:13">
+      <c r="N1297" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:14">
       <c r="A1298" s="14" t="s">
         <v>154</v>
       </c>
@@ -47924,8 +48070,11 @@
       <c r="M1298" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1299" spans="1:13">
+      <c r="N1298" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:14">
       <c r="A1299" s="14" t="s">
         <v>155</v>
       </c>
@@ -47961,8 +48110,11 @@
       <c r="M1299" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1300" spans="1:13">
+      <c r="N1299" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:14">
       <c r="A1300" s="14" t="s">
         <v>156</v>
       </c>
@@ -47998,8 +48150,11 @@
       <c r="M1300" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1301" spans="1:13">
+      <c r="N1300" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:14">
       <c r="A1301" s="14" t="s">
         <v>157</v>
       </c>
@@ -48035,8 +48190,11 @@
       <c r="M1301" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1302" spans="1:13">
+      <c r="N1301" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:14">
       <c r="A1302" s="14" t="s">
         <v>158</v>
       </c>
@@ -48072,8 +48230,11 @@
       <c r="M1302" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1303" spans="1:13">
+      <c r="N1302" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:14">
       <c r="A1303" s="14" t="s">
         <v>159</v>
       </c>
@@ -48109,8 +48270,11 @@
       <c r="M1303" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1304" spans="1:13">
+      <c r="N1303" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:14">
       <c r="A1304" s="14" t="s">
         <v>160</v>
       </c>
@@ -48146,8 +48310,11 @@
       <c r="M1304" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1305" spans="1:13">
+      <c r="N1304" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:14">
       <c r="A1305" s="14" t="s">
         <v>161</v>
       </c>
@@ -48183,8 +48350,11 @@
       <c r="M1305" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1306" spans="1:13">
+      <c r="N1305" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:14">
       <c r="A1306" s="14" t="s">
         <v>162</v>
       </c>
@@ -48220,8 +48390,11 @@
       <c r="M1306" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1307" spans="1:13">
+      <c r="N1306" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:14">
       <c r="A1307" s="14" t="s">
         <v>163</v>
       </c>
@@ -48257,8 +48430,11 @@
       <c r="M1307" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1308" spans="1:13">
+      <c r="N1307" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:14">
       <c r="A1308" s="14" t="s">
         <v>164</v>
       </c>
@@ -48294,8 +48470,11 @@
       <c r="M1308" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1309" spans="1:13">
+      <c r="N1308" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:14">
       <c r="A1309" s="43" t="s">
         <v>165</v>
       </c>
@@ -48331,8 +48510,11 @@
       <c r="M1309" s="58">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1310" spans="1:13">
+      <c r="N1309" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:14">
       <c r="A1310" s="43" t="s">
         <v>166</v>
       </c>
@@ -48368,8 +48550,11 @@
       <c r="M1310" s="58">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1311" spans="1:13">
+      <c r="N1310" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:14">
       <c r="A1311" s="14" t="s">
         <v>167</v>
       </c>
@@ -48405,8 +48590,11 @@
       <c r="M1311" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1312" spans="1:13">
+      <c r="N1311" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:14">
       <c r="A1312" s="14" t="s">
         <v>168</v>
       </c>
@@ -48442,8 +48630,11 @@
       <c r="M1312" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1313" spans="1:13">
+      <c r="N1312" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:14">
       <c r="A1313" s="14" t="s">
         <v>169</v>
       </c>
@@ -48479,8 +48670,11 @@
       <c r="M1313" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1314" spans="1:13">
+      <c r="N1313" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:14">
       <c r="A1314" s="14" t="s">
         <v>170</v>
       </c>
@@ -48516,8 +48710,11 @@
       <c r="M1314" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1315" spans="1:13">
+      <c r="N1314" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:14">
       <c r="A1315" s="14" t="s">
         <v>171</v>
       </c>
@@ -48553,8 +48750,11 @@
       <c r="M1315" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1316" spans="1:13">
+      <c r="N1315" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:14">
       <c r="A1316" s="14" t="s">
         <v>172</v>
       </c>
@@ -48590,8 +48790,11 @@
       <c r="M1316" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1317" spans="1:13">
+      <c r="N1316" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:14">
       <c r="A1317" s="14" t="s">
         <v>173</v>
       </c>
@@ -48627,8 +48830,11 @@
       <c r="M1317" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1318" spans="1:13">
+      <c r="N1317" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:14">
       <c r="A1318" s="14" t="s">
         <v>174</v>
       </c>
@@ -48664,8 +48870,11 @@
       <c r="M1318" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1319" spans="1:13">
+      <c r="N1318" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:14">
       <c r="A1319" s="14" t="s">
         <v>175</v>
       </c>
@@ -48701,8 +48910,11 @@
       <c r="M1319" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1320" spans="1:13">
+      <c r="N1319" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:14">
       <c r="A1320" s="14" t="s">
         <v>176</v>
       </c>
@@ -48738,8 +48950,11 @@
       <c r="M1320" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1321" spans="1:13">
+      <c r="N1320" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:14">
       <c r="A1321" s="14" t="s">
         <v>177</v>
       </c>
@@ -48775,8 +48990,11 @@
       <c r="M1321" s="57">
         <v>43656</v>
       </c>
-    </row>
-    <row r="1322" spans="1:13">
+      <c r="N1321" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:14">
       <c r="A1322" s="14" t="s">
         <v>179</v>
       </c>
@@ -48812,8 +49030,11 @@
       <c r="M1322" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1323" spans="1:13">
+      <c r="N1322" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:14">
       <c r="A1323" s="14" t="s">
         <v>180</v>
       </c>
@@ -48849,8 +49070,11 @@
       <c r="M1323" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1324" spans="1:13">
+      <c r="N1323" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:14">
       <c r="A1324" s="14" t="s">
         <v>181</v>
       </c>
@@ -48886,8 +49110,11 @@
       <c r="M1324" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1325" spans="1:13">
+      <c r="N1324" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:14">
       <c r="A1325" s="14" t="s">
         <v>182</v>
       </c>
@@ -48923,8 +49150,11 @@
       <c r="M1325" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1326" spans="1:13">
+      <c r="N1325" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:14">
       <c r="A1326" s="14" t="s">
         <v>183</v>
       </c>
@@ -48960,8 +49190,11 @@
       <c r="M1326" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1327" spans="1:13">
+      <c r="N1326" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:14">
       <c r="A1327" s="14" t="s">
         <v>184</v>
       </c>
@@ -48997,8 +49230,11 @@
       <c r="M1327" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1328" spans="1:13">
+      <c r="N1327" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:14">
       <c r="A1328" s="14" t="s">
         <v>185</v>
       </c>
@@ -49034,8 +49270,11 @@
       <c r="M1328" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1329" spans="1:13">
+      <c r="N1328" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:14">
       <c r="A1329" s="14" t="s">
         <v>186</v>
       </c>
@@ -49071,8 +49310,11 @@
       <c r="M1329" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1330" spans="1:13">
+      <c r="N1329" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:14">
       <c r="A1330" s="14" t="s">
         <v>187</v>
       </c>
@@ -49108,8 +49350,11 @@
       <c r="M1330" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1331" spans="1:13">
+      <c r="N1330" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:14">
       <c r="A1331" s="14" t="s">
         <v>188</v>
       </c>
@@ -49145,8 +49390,11 @@
       <c r="M1331" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1332" spans="1:13">
+      <c r="N1331" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:14">
       <c r="A1332" s="14" t="s">
         <v>189</v>
       </c>
@@ -49182,8 +49430,11 @@
       <c r="M1332" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1333" spans="1:13">
+      <c r="N1332" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:14">
       <c r="A1333" s="14" t="s">
         <v>190</v>
       </c>
@@ -49219,8 +49470,11 @@
       <c r="M1333" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1334" spans="1:13">
+      <c r="N1333" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:14">
       <c r="A1334" s="14" t="s">
         <v>191</v>
       </c>
@@ -49256,8 +49510,11 @@
       <c r="M1334" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1335" spans="1:13">
+      <c r="N1334" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:14">
       <c r="A1335" s="14" t="s">
         <v>193</v>
       </c>
@@ -49293,8 +49550,11 @@
       <c r="M1335" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1336" spans="1:13">
+      <c r="N1335" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:14">
       <c r="A1336" s="14" t="s">
         <v>194</v>
       </c>
@@ -49330,8 +49590,11 @@
       <c r="M1336" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1337" spans="1:13">
+      <c r="N1336" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:14">
       <c r="A1337" s="14" t="s">
         <v>195</v>
       </c>
@@ -49367,8 +49630,11 @@
       <c r="M1337" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1338" spans="1:13">
+      <c r="N1337" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:14">
       <c r="A1338" s="14" t="s">
         <v>196</v>
       </c>
@@ -49404,8 +49670,11 @@
       <c r="M1338" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1339" spans="1:13">
+      <c r="N1338" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:14">
       <c r="A1339" s="14" t="s">
         <v>201</v>
       </c>
@@ -49441,8 +49710,11 @@
       <c r="M1339" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1340" spans="1:13">
+      <c r="N1339" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:14">
       <c r="A1340" s="14" t="s">
         <v>202</v>
       </c>
@@ -49478,8 +49750,11 @@
       <c r="M1340" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1341" spans="1:13">
+      <c r="N1340" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:14">
       <c r="A1341" s="14" t="s">
         <v>203</v>
       </c>
@@ -49515,8 +49790,11 @@
       <c r="M1341" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1342" spans="1:13">
+      <c r="N1341" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:14">
       <c r="A1342" s="14" t="s">
         <v>204</v>
       </c>
@@ -49552,8 +49830,11 @@
       <c r="M1342" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1343" spans="1:13">
+      <c r="N1342" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:14">
       <c r="A1343" s="14" t="s">
         <v>205</v>
       </c>
@@ -49589,8 +49870,11 @@
       <c r="M1343" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1344" spans="1:13">
+      <c r="N1343" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:14">
       <c r="A1344" s="14" t="s">
         <v>206</v>
       </c>
@@ -49626,8 +49910,11 @@
       <c r="M1344" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1345" spans="1:13">
+      <c r="N1344" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:14">
       <c r="A1345" s="14" t="s">
         <v>207</v>
       </c>
@@ -49663,8 +49950,11 @@
       <c r="M1345" s="57">
         <v>43664</v>
       </c>
-    </row>
-    <row r="1346" spans="1:13">
+      <c r="N1345" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:14">
       <c r="A1346" s="14" t="s">
         <v>96</v>
       </c>
@@ -49701,7 +49991,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1347" spans="1:13">
+    <row r="1347" spans="1:14">
       <c r="A1347" s="14" t="s">
         <v>97</v>
       </c>
@@ -49738,7 +50028,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1348" spans="1:13">
+    <row r="1348" spans="1:14">
       <c r="A1348" s="14" t="s">
         <v>100</v>
       </c>
@@ -49775,7 +50065,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1349" spans="1:13">
+    <row r="1349" spans="1:14">
       <c r="A1349" s="14" t="s">
         <v>101</v>
       </c>
@@ -49812,7 +50102,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1350" spans="1:13">
+    <row r="1350" spans="1:14">
       <c r="A1350" s="14" t="s">
         <v>102</v>
       </c>
@@ -49849,7 +50139,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1351" spans="1:13">
+    <row r="1351" spans="1:14">
       <c r="A1351" s="43" t="s">
         <v>103</v>
       </c>
@@ -49886,7 +50176,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1352" spans="1:13">
+    <row r="1352" spans="1:14">
       <c r="A1352" s="43" t="s">
         <v>104</v>
       </c>
@@ -49923,7 +50213,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1353" spans="1:13">
+    <row r="1353" spans="1:14">
       <c r="A1353" s="14" t="s">
         <v>105</v>
       </c>
@@ -49960,7 +50250,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1354" spans="1:13">
+    <row r="1354" spans="1:14">
       <c r="A1354" s="14" t="s">
         <v>106</v>
       </c>
@@ -49997,7 +50287,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1355" spans="1:13">
+    <row r="1355" spans="1:14">
       <c r="A1355" s="14" t="s">
         <v>107</v>
       </c>
@@ -50034,7 +50324,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1356" spans="1:13">
+    <row r="1356" spans="1:14">
       <c r="A1356" s="14" t="s">
         <v>108</v>
       </c>
@@ -50071,7 +50361,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1357" spans="1:13">
+    <row r="1357" spans="1:14">
       <c r="A1357" s="43" t="s">
         <v>109</v>
       </c>
@@ -50108,7 +50398,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1358" spans="1:13">
+    <row r="1358" spans="1:14">
       <c r="A1358" s="43" t="s">
         <v>110</v>
       </c>
@@ -50145,7 +50435,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1359" spans="1:13">
+    <row r="1359" spans="1:14">
       <c r="A1359" s="43" t="s">
         <v>111</v>
       </c>
@@ -50182,7 +50472,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="1360" spans="1:13">
+    <row r="1360" spans="1:14">
       <c r="A1360" s="43" t="s">
         <v>113</v>
       </c>
@@ -65864,7 +66154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -66327,7 +66617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
